--- a/data/trans_orig/P6715-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF3A9471-212B-428F-9C17-9DAF5AB324AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB26FDEE-56C7-4498-8AA8-4274F4A6D39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C331FBD3-09D0-4F73-9F65-05B22D39E613}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6448D40D-980A-4DDD-A0BA-EFE33678FACB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="358">
   <si>
     <t>Población según si tienen sentido sus tareas del trabajo en 2012 (Tasa respuesta: 33,9%)</t>
   </si>
@@ -84,13 +84,13 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,84%</t>
+    <t>3,4%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,48%</t>
+    <t>1,71%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -102,997 +102,1015 @@
     <t>0,56%</t>
   </si>
   <si>
-    <t>6,72%</t>
+    <t>7,04%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen sentido sus tareas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen sentido sus tareas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
+    <t>4,72%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
   </si>
   <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>13,13%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
   </si>
   <si>
     <t>15,44%</t>
   </si>
   <si>
-    <t>17,56%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>15,18%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
   <si>
     <t>28,36%</t>
   </si>
   <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
   </si>
   <si>
     <t>27,63%</t>
   </si>
   <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
   </si>
   <si>
     <t>28,05%</t>
   </si>
   <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
   </si>
   <si>
     <t>51,13%</t>
   </si>
   <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
   </si>
   <si>
     <t>51,86%</t>
   </si>
   <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
   </si>
   <si>
     <t>51,44%</t>
   </si>
   <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D32C33-E53C-42C6-8342-5DD74BE151CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AA18BB-541F-4C98-BCDC-C37FBB78169B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1733,10 +1751,10 @@
         <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -1745,13 +1763,13 @@
         <v>23639</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -1760,19 +1778,19 @@
         <v>50103</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>32</v>
@@ -1781,13 +1799,13 @@
         <v>34564</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -1796,13 +1814,13 @@
         <v>22656</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -1811,19 +1829,19 @@
         <v>57220</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>117</v>
@@ -1832,13 +1850,13 @@
         <v>118900</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -1847,13 +1865,13 @@
         <v>86100</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>197</v>
@@ -1862,13 +1880,13 @@
         <v>204999</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,13 +1901,13 @@
         <v>184018</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>130</v>
@@ -1898,13 +1916,13 @@
         <v>139977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>306</v>
@@ -1913,18 +1931,18 @@
         <v>323995</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1936,13 +1954,13 @@
         <v>3120</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -1951,13 +1969,13 @@
         <v>4243</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -1966,13 +1984,13 @@
         <v>7363</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +2005,13 @@
         <v>12845</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -2002,13 +2020,13 @@
         <v>13443</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -2017,13 +2035,13 @@
         <v>26288</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,13 +2056,13 @@
         <v>104405</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>94</v>
@@ -2053,13 +2071,13 @@
         <v>101255</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>196</v>
@@ -2068,19 +2086,19 @@
         <v>205659</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>220</v>
@@ -2089,13 +2107,13 @@
         <v>229336</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -2104,13 +2122,13 @@
         <v>142083</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>356</v>
@@ -2119,19 +2137,19 @@
         <v>371419</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>529</v>
@@ -2140,13 +2158,13 @@
         <v>565866</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>286</v>
@@ -2155,13 +2173,13 @@
         <v>309585</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>815</v>
@@ -2170,13 +2188,13 @@
         <v>875451</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,13 +2209,13 @@
         <v>915572</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>533</v>
@@ -2206,13 +2224,13 @@
         <v>570608</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>1400</v>
@@ -2221,18 +2239,18 @@
         <v>1486180</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2244,13 +2262,13 @@
         <v>3130</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2259,13 +2277,13 @@
         <v>986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2274,13 +2292,13 @@
         <v>4116</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,7 +2313,7 @@
         <v>5035</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>112</v>
@@ -2325,13 +2343,13 @@
         <v>6235</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,13 +2364,13 @@
         <v>30965</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -2361,13 +2379,13 @@
         <v>16296</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>42</v>
@@ -2376,19 +2394,19 @@
         <v>47261</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>47</v>
@@ -2397,13 +2415,13 @@
         <v>49653</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -2412,13 +2430,13 @@
         <v>50869</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -2427,19 +2445,19 @@
         <v>100522</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>204</v>
@@ -2448,13 +2466,13 @@
         <v>227475</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>146</v>
@@ -2463,13 +2481,13 @@
         <v>163630</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>350</v>
@@ -2478,13 +2496,13 @@
         <v>391105</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,13 +2517,13 @@
         <v>316257</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>209</v>
@@ -2514,13 +2532,13 @@
         <v>232981</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>495</v>
@@ -2529,13 +2547,13 @@
         <v>549238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2570,13 @@
         <v>6250</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2567,13 +2585,13 @@
         <v>6176</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -2582,13 +2600,13 @@
         <v>12425</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2621,13 @@
         <v>21970</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -2618,10 +2636,10 @@
         <v>21279</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>158</v>
@@ -2633,13 +2651,13 @@
         <v>43249</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,7 +2672,7 @@
         <v>161834</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>162</v>
@@ -2687,16 +2705,16 @@
         <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>299</v>
@@ -2705,13 +2723,13 @@
         <v>313553</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>203</v>
@@ -2720,13 +2738,13 @@
         <v>215608</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>502</v>
@@ -2735,19 +2753,19 @@
         <v>529161</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>850</v>
@@ -2756,13 +2774,13 @@
         <v>912241</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>512</v>
@@ -2771,13 +2789,13 @@
         <v>559314</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>1362</v>
@@ -2786,13 +2804,13 @@
         <v>1471556</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,13 +2825,13 @@
         <v>1415847</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>872</v>
@@ -2822,13 +2840,13 @@
         <v>943566</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>2201</v>
@@ -2837,18 +2855,18 @@
         <v>2359414</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2867,7 +2885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18818DE8-5228-4901-96A5-522272CC7565}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23891576-4A7D-4F91-AE7D-EBC04B1262FF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +2902,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2991,13 +3009,13 @@
         <v>5442</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3012,7 +3030,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3021,13 +3039,13 @@
         <v>5442</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3060,13 @@
         <v>3424</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3057,13 +3075,13 @@
         <v>2791</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -3072,13 +3090,13 @@
         <v>6215</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3111,13 @@
         <v>38170</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -3108,13 +3126,13 @@
         <v>15447</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -3123,19 +3141,19 @@
         <v>53617</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>32</v>
@@ -3144,13 +3162,13 @@
         <v>33228</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -3159,13 +3177,13 @@
         <v>23342</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -3174,19 +3192,19 @@
         <v>56571</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>58</v>
@@ -3195,13 +3213,13 @@
         <v>62853</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -3210,13 +3228,13 @@
         <v>30507</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
         <v>88</v>
@@ -3225,13 +3243,13 @@
         <v>93360</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3264,13 @@
         <v>143118</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -3261,13 +3279,13 @@
         <v>72087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>206</v>
@@ -3276,18 +3294,18 @@
         <v>215205</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3299,13 +3317,13 @@
         <v>14923</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3314,13 +3332,13 @@
         <v>12376</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -3329,13 +3347,13 @@
         <v>27299</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3368,13 @@
         <v>35817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -3365,13 +3383,13 @@
         <v>27580</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>238</v>
+        <v>105</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -3380,13 +3398,13 @@
         <v>63396</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3419,13 @@
         <v>136438</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H12" s="7">
         <v>112</v>
@@ -3416,13 +3434,13 @@
         <v>115370</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M12" s="7">
         <v>236</v>
@@ -3431,19 +3449,19 @@
         <v>251807</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>280</v>
@@ -3452,13 +3470,13 @@
         <v>294630</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H13" s="7">
         <v>197</v>
@@ -3467,13 +3485,13 @@
         <v>197296</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>477</v>
@@ -3482,19 +3500,19 @@
         <v>491926</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>415</v>
@@ -3503,13 +3521,13 @@
         <v>443390</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>290</v>
@@ -3518,13 +3536,13 @@
         <v>300153</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>705</v>
@@ -3533,13 +3551,13 @@
         <v>743543</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,13 +3572,13 @@
         <v>925197</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>638</v>
@@ -3569,13 +3587,13 @@
         <v>652775</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>1503</v>
@@ -3584,18 +3602,18 @@
         <v>1577972</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3607,13 +3625,13 @@
         <v>3065</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>152</v>
+        <v>275</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3622,13 +3640,13 @@
         <v>3883</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3637,13 +3655,13 @@
         <v>6948</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>146</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,13 +3676,13 @@
         <v>15532</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3673,13 +3691,13 @@
         <v>5711</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -3688,13 +3706,13 @@
         <v>21243</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,13 +3727,13 @@
         <v>38121</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -3724,13 +3742,13 @@
         <v>28734</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M18" s="7">
         <v>60</v>
@@ -3739,19 +3757,19 @@
         <v>66855</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>69</v>
@@ -3760,13 +3778,13 @@
         <v>74590</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -3775,13 +3793,13 @@
         <v>64861</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -3790,19 +3808,19 @@
         <v>139450</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>205</v>
@@ -3811,13 +3829,13 @@
         <v>219301</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
         <v>197</v>
@@ -3826,13 +3844,13 @@
         <v>205264</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>402</v>
@@ -3841,13 +3859,13 @@
         <v>424565</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3880,13 @@
         <v>350608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
@@ -3877,13 +3895,13 @@
         <v>308453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -3892,13 +3910,13 @@
         <v>659061</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,13 +3933,13 @@
         <v>23429</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>313</v>
+        <v>13</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -3930,13 +3948,13 @@
         <v>16260</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>271</v>
+        <v>161</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -3945,13 +3963,13 @@
         <v>39689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>26</v>
+        <v>320</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,13 +3984,13 @@
         <v>54773</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -3981,13 +3999,13 @@
         <v>36082</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>322</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M23" s="7">
         <v>85</v>
@@ -3996,13 +4014,13 @@
         <v>90854</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +4035,13 @@
         <v>212730</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="H24" s="7">
         <v>156</v>
@@ -4032,13 +4050,13 @@
         <v>159550</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M24" s="7">
         <v>347</v>
@@ -4047,19 +4065,19 @@
         <v>372280</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>381</v>
@@ -4068,13 +4086,13 @@
         <v>402449</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H25" s="7">
         <v>284</v>
@@ -4083,13 +4101,13 @@
         <v>285499</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M25" s="7">
         <v>665</v>
@@ -4098,19 +4116,19 @@
         <v>687948</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>678</v>
@@ -4119,13 +4137,13 @@
         <v>725544</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H26" s="7">
         <v>517</v>
@@ -4134,13 +4152,13 @@
         <v>535924</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M26" s="7">
         <v>1195</v>
@@ -4149,13 +4167,13 @@
         <v>1261468</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4188,13 @@
         <v>1418924</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>1009</v>
@@ -4185,13 +4203,13 @@
         <v>1033315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>2329</v>
@@ -4200,18 +4218,18 @@
         <v>2452238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6715-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB26FDEE-56C7-4498-8AA8-4274F4A6D39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B40B8320-B587-4860-AF2B-41126AEA846F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6448D40D-980A-4DDD-A0BA-EFE33678FACB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AA4D87EF-30D1-4956-AF8E-63330AF98AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="350">
   <si>
     <t>Población según si tienen sentido sus tareas del trabajo en 2012 (Tasa respuesta: 33,9%)</t>
   </si>
@@ -84,13 +84,13 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,4%</t>
+    <t>3,43%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,71%</t>
+    <t>1,46%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -102,25 +102,25 @@
     <t>0,56%</t>
   </si>
   <si>
-    <t>7,04%</t>
+    <t>7,01%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -129,25 +129,28 @@
     <t>14,38%</t>
   </si>
   <si>
-    <t>20,6%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
   </si>
   <si>
     <t>16,89%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
   </si>
   <si>
     <t>15,46%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -156,961 +159,934 @@
     <t>18,78%</t>
   </si>
   <si>
-    <t>13,3%</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen sentido sus tareas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen sentido sus tareas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>16,79%</t>
   </si>
   <si>
     <t>28,36%</t>
   </si>
   <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
   </si>
   <si>
     <t>27,63%</t>
   </si>
   <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
   </si>
   <si>
     <t>28,05%</t>
   </si>
   <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
   </si>
   <si>
     <t>51,13%</t>
   </si>
   <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
   </si>
   <si>
     <t>51,86%</t>
   </si>
   <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
   </si>
   <si>
     <t>51,44%</t>
   </si>
   <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AA18BB-541F-4C98-BCDC-C37FBB78169B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C18673D-F681-495E-AA59-CFBC1BC1285B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1751,10 +1727,10 @@
         <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -1763,13 +1739,13 @@
         <v>23639</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -1778,19 +1754,19 @@
         <v>50103</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>32</v>
@@ -1799,13 +1775,13 @@
         <v>34564</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -1814,13 +1790,13 @@
         <v>22656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -1829,19 +1805,19 @@
         <v>57220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>117</v>
@@ -1850,13 +1826,13 @@
         <v>118900</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -1865,13 +1841,13 @@
         <v>86100</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>197</v>
@@ -1880,13 +1856,13 @@
         <v>204999</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,13 +1877,13 @@
         <v>184018</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>130</v>
@@ -1916,13 +1892,13 @@
         <v>139977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>306</v>
@@ -1931,18 +1907,18 @@
         <v>323995</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1954,13 +1930,13 @@
         <v>3120</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -1969,13 +1945,13 @@
         <v>4243</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -1984,13 +1960,13 @@
         <v>7363</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,7 +2074,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>220</v>
@@ -2137,19 +2113,19 @@
         <v>371419</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>529</v>
@@ -2158,13 +2134,13 @@
         <v>565866</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>286</v>
@@ -2173,13 +2149,13 @@
         <v>309585</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>815</v>
@@ -2188,13 +2164,13 @@
         <v>875451</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,13 +2185,13 @@
         <v>915572</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>533</v>
@@ -2224,13 +2200,13 @@
         <v>570608</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>1400</v>
@@ -2239,18 +2215,18 @@
         <v>1486180</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2262,13 +2238,13 @@
         <v>3130</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2277,13 +2253,13 @@
         <v>986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2292,13 +2268,13 @@
         <v>4116</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,7 +2382,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>47</v>
@@ -2418,10 +2394,10 @@
         <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -2430,13 +2406,13 @@
         <v>50869</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -2445,19 +2421,19 @@
         <v>100522</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>204</v>
@@ -2466,13 +2442,13 @@
         <v>227475</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>146</v>
@@ -2481,13 +2457,13 @@
         <v>163630</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>350</v>
@@ -2496,13 +2472,13 @@
         <v>391105</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2493,13 @@
         <v>316257</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>209</v>
@@ -2532,13 +2508,13 @@
         <v>232981</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>495</v>
@@ -2547,13 +2523,13 @@
         <v>549238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2546,13 @@
         <v>6250</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2585,13 +2561,13 @@
         <v>6176</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -2600,13 +2576,13 @@
         <v>12425</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2597,13 @@
         <v>21970</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -2636,13 +2612,13 @@
         <v>21279</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="M23" s="7">
         <v>41</v>
@@ -2651,13 +2627,13 @@
         <v>43249</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,7 +2648,7 @@
         <v>161834</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>162</v>
@@ -2693,7 +2669,7 @@
         <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="M24" s="7">
         <v>284</v>
@@ -2702,19 +2678,19 @@
         <v>303023</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>299</v>
@@ -2723,13 +2699,13 @@
         <v>313553</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="H25" s="7">
         <v>203</v>
@@ -2738,13 +2714,13 @@
         <v>215608</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>502</v>
@@ -2753,19 +2729,19 @@
         <v>529161</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>850</v>
@@ -2774,13 +2750,13 @@
         <v>912241</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>512</v>
@@ -2789,13 +2765,13 @@
         <v>559314</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>1362</v>
@@ -2804,13 +2780,13 @@
         <v>1471556</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2801,13 @@
         <v>1415847</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>872</v>
@@ -2840,13 +2816,13 @@
         <v>943566</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>2201</v>
@@ -2855,18 +2831,18 @@
         <v>2359414</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2885,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23891576-4A7D-4F91-AE7D-EBC04B1262FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF4BC66-9A78-43D6-AC86-4F67E68CA2D7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2902,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3009,13 +2985,13 @@
         <v>5442</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3030,7 +3006,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3039,13 +3015,13 @@
         <v>5442</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3036,13 @@
         <v>3424</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3075,13 +3051,13 @@
         <v>2791</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -3090,13 +3066,13 @@
         <v>6215</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3087,13 @@
         <v>38170</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -3126,13 +3102,13 @@
         <v>15447</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -3141,19 +3117,19 @@
         <v>53617</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>32</v>
@@ -3162,13 +3138,13 @@
         <v>33228</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -3177,13 +3153,13 @@
         <v>23342</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -3192,19 +3168,19 @@
         <v>56571</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>58</v>
@@ -3213,13 +3189,13 @@
         <v>62853</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -3228,13 +3204,13 @@
         <v>30507</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
         <v>88</v>
@@ -3243,13 +3219,13 @@
         <v>93360</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3240,13 @@
         <v>143118</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -3279,13 +3255,13 @@
         <v>72087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>206</v>
@@ -3294,18 +3270,18 @@
         <v>215205</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3317,13 +3293,13 @@
         <v>14923</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>232</v>
+        <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3332,13 +3308,13 @@
         <v>12376</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -3347,13 +3323,13 @@
         <v>27299</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3344,13 @@
         <v>35817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -3383,13 +3359,13 @@
         <v>27580</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -3398,13 +3374,13 @@
         <v>63396</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3395,13 @@
         <v>136438</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H12" s="7">
         <v>112</v>
@@ -3434,13 +3410,13 @@
         <v>115370</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="M12" s="7">
         <v>236</v>
@@ -3449,19 +3425,19 @@
         <v>251807</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>280</v>
@@ -3470,13 +3446,13 @@
         <v>294630</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
         <v>197</v>
@@ -3485,13 +3461,13 @@
         <v>197296</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
         <v>477</v>
@@ -3500,19 +3476,19 @@
         <v>491926</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>415</v>
@@ -3521,13 +3497,13 @@
         <v>443390</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H14" s="7">
         <v>290</v>
@@ -3536,13 +3512,13 @@
         <v>300153</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="M14" s="7">
         <v>705</v>
@@ -3551,13 +3527,13 @@
         <v>743543</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3548,13 @@
         <v>925197</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>638</v>
@@ -3587,13 +3563,13 @@
         <v>652775</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>1503</v>
@@ -3602,18 +3578,18 @@
         <v>1577972</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3625,13 +3601,13 @@
         <v>3065</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>277</v>
+        <v>160</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3640,13 +3616,13 @@
         <v>3883</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3655,13 +3631,13 @@
         <v>6948</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3652,13 @@
         <v>15532</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3691,13 +3667,13 @@
         <v>5711</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -3706,13 +3682,13 @@
         <v>21243</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>64</v>
+        <v>280</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3703,13 @@
         <v>38121</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -3742,13 +3718,13 @@
         <v>28734</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M18" s="7">
         <v>60</v>
@@ -3757,19 +3733,19 @@
         <v>66855</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>69</v>
@@ -3778,13 +3754,13 @@
         <v>74590</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -3793,13 +3769,13 @@
         <v>64861</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -3808,19 +3784,19 @@
         <v>139450</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>205</v>
@@ -3829,13 +3805,13 @@
         <v>219301</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H20" s="7">
         <v>197</v>
@@ -3844,13 +3820,13 @@
         <v>205264</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="M20" s="7">
         <v>402</v>
@@ -3859,13 +3835,13 @@
         <v>424565</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3856,13 @@
         <v>350608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
@@ -3895,13 +3871,13 @@
         <v>308453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -3910,13 +3886,13 @@
         <v>659061</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3909,13 @@
         <v>23429</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>194</v>
+        <v>310</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -3948,13 +3924,13 @@
         <v>16260</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>319</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>161</v>
+        <v>312</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -3963,13 +3939,13 @@
         <v>39689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +3960,13 @@
         <v>54773</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -3999,13 +3975,13 @@
         <v>36082</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>319</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M23" s="7">
         <v>85</v>
@@ -4014,13 +3990,13 @@
         <v>90854</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>329</v>
+        <v>235</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +4011,13 @@
         <v>212730</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H24" s="7">
         <v>156</v>
@@ -4050,13 +4026,13 @@
         <v>159550</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="M24" s="7">
         <v>347</v>
@@ -4065,19 +4041,19 @@
         <v>372280</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>381</v>
@@ -4086,13 +4062,13 @@
         <v>402449</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H25" s="7">
         <v>284</v>
@@ -4101,13 +4077,13 @@
         <v>285499</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M25" s="7">
         <v>665</v>
@@ -4116,19 +4092,19 @@
         <v>687948</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>678</v>
@@ -4137,13 +4113,13 @@
         <v>725544</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H26" s="7">
         <v>517</v>
@@ -4152,13 +4128,13 @@
         <v>535924</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M26" s="7">
         <v>1195</v>
@@ -4167,13 +4143,13 @@
         <v>1261468</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4164,13 @@
         <v>1418924</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>1009</v>
@@ -4203,13 +4179,13 @@
         <v>1033315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>2329</v>
@@ -4218,18 +4194,18 @@
         <v>2452238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6715-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B40B8320-B587-4860-AF2B-41126AEA846F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBA9C3D4-087D-4B88-9353-E243427927E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AA4D87EF-30D1-4956-AF8E-63330AF98AA4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AAEB4BCE-BE34-48DF-9031-FB8B3E7A8C5F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="352">
   <si>
     <t>Población según si tienen sentido sus tareas del trabajo en 2012 (Tasa respuesta: 33,9%)</t>
   </si>
@@ -84,13 +84,13 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,43%</t>
+    <t>3,84%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,46%</t>
+    <t>1,48%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -102,934 +102,940 @@
     <t>0,56%</t>
   </si>
   <si>
-    <t>7,01%</t>
+    <t>6,72%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen sentido sus tareas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
   </si>
   <si>
     <t>15,59%</t>
   </si>
   <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen sentido sus tareas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
     <t>9,32%</t>
   </si>
   <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>12,72%</t>
+    <t>12,67%</t>
   </si>
   <si>
     <t>10,14%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
   </si>
   <si>
     <t>21,27%</t>
   </si>
   <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>62,55%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
   </si>
   <si>
     <t>66,55%</t>
   </si>
   <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
+    <t>61,09%</t>
   </si>
   <si>
     <t>64,42%</t>
   </si>
   <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>2,51%</t>
+    <t>1,01%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
+    <t>0,98%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>2,19%</t>
+    <t>2,24%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>5,04%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>4,58%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
   </si>
   <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
+    <t>13,13%</t>
   </si>
   <si>
     <t>15,44%</t>
   </si>
   <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
+    <t>17,56%</t>
   </si>
   <si>
     <t>15,18%</t>
   </si>
   <si>
-    <t>13,69%</t>
+    <t>13,75%</t>
   </si>
   <si>
     <t>16,79%</t>
@@ -1038,55 +1044,55 @@
     <t>28,36%</t>
   </si>
   <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
   </si>
   <si>
     <t>27,63%</t>
   </si>
   <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
   </si>
   <si>
     <t>28,05%</t>
   </si>
   <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
   </si>
   <si>
     <t>51,13%</t>
   </si>
   <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
   </si>
   <si>
     <t>51,86%</t>
   </si>
   <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
   </si>
   <si>
     <t>51,44%</t>
   </si>
   <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C18673D-F681-495E-AA59-CFBC1BC1285B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB6C16-DB41-466A-A73B-88B7A9316DD9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1966,7 +1972,7 @@
         <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1987,13 @@
         <v>12845</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -1996,13 +2002,13 @@
         <v>13443</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -2011,13 +2017,13 @@
         <v>26288</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,13 +2038,13 @@
         <v>104405</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>94</v>
@@ -2047,13 +2053,13 @@
         <v>101255</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>196</v>
@@ -2062,13 +2068,13 @@
         <v>205659</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2089,13 @@
         <v>229336</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -2098,13 +2104,13 @@
         <v>142083</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>356</v>
@@ -2113,13 +2119,13 @@
         <v>371419</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,13 +2140,13 @@
         <v>565866</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>286</v>
@@ -2149,13 +2155,13 @@
         <v>309585</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>815</v>
@@ -2164,13 +2170,13 @@
         <v>875451</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,7 +2232,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2238,7 +2244,7 @@
         <v>3130</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>106</v>
@@ -2274,7 +2280,7 @@
         <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,7 +2295,7 @@
         <v>5035</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>112</v>
@@ -2319,13 +2325,13 @@
         <v>6235</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2346,13 @@
         <v>30965</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -2355,13 +2361,13 @@
         <v>16296</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>42</v>
@@ -2370,13 +2376,13 @@
         <v>47261</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2397,13 @@
         <v>49653</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -2406,13 +2412,13 @@
         <v>50869</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -2421,13 +2427,13 @@
         <v>100522</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2448,13 @@
         <v>227475</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>146</v>
@@ -2457,13 +2463,13 @@
         <v>163630</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>350</v>
@@ -2472,13 +2478,13 @@
         <v>391105</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2552,13 @@
         <v>6250</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2561,13 +2567,13 @@
         <v>6176</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -2576,10 +2582,10 @@
         <v>12425</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>152</v>
@@ -2618,7 +2624,7 @@
         <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="M23" s="7">
         <v>41</v>
@@ -2627,7 +2633,7 @@
         <v>43249</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>159</v>
@@ -2669,7 +2675,7 @@
         <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>284</v>
@@ -2678,10 +2684,10 @@
         <v>303023</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>168</v>
@@ -2705,7 +2711,7 @@
         <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>203</v>
@@ -2714,13 +2720,13 @@
         <v>215608</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>502</v>
@@ -2729,7 +2735,7 @@
         <v>529161</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>175</v>
@@ -2861,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF4BC66-9A78-43D6-AC86-4F67E68CA2D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B76892-9D35-45C0-AE74-7EAED19600DD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2988,7 +2994,7 @@
         <v>188</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>189</v>
@@ -3006,7 +3012,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3015,13 +3021,13 @@
         <v>5442</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,7 +3042,7 @@
         <v>3424</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
@@ -3072,7 +3078,7 @@
         <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3093,13 @@
         <v>38170</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -3102,13 +3108,13 @@
         <v>15447</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -3117,13 +3123,13 @@
         <v>53617</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3144,13 @@
         <v>33228</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -3153,13 +3159,13 @@
         <v>23342</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -3168,13 +3174,13 @@
         <v>56571</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3195,13 @@
         <v>62853</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -3204,13 +3210,13 @@
         <v>30507</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
         <v>88</v>
@@ -3219,13 +3225,13 @@
         <v>93360</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3299,13 @@
         <v>14923</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3308,13 +3314,13 @@
         <v>12376</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -3323,13 +3329,13 @@
         <v>27299</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,10 +3353,10 @@
         <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -3359,13 +3365,13 @@
         <v>27580</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -3374,13 +3380,13 @@
         <v>63396</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3401,13 @@
         <v>136438</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H12" s="7">
         <v>112</v>
@@ -3410,13 +3416,13 @@
         <v>115370</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M12" s="7">
         <v>236</v>
@@ -3425,13 +3431,13 @@
         <v>251807</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3452,13 @@
         <v>294630</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H13" s="7">
         <v>197</v>
@@ -3461,13 +3467,13 @@
         <v>197296</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M13" s="7">
         <v>477</v>
@@ -3476,13 +3482,13 @@
         <v>491926</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3503,13 @@
         <v>443390</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H14" s="7">
         <v>290</v>
@@ -3512,13 +3518,13 @@
         <v>300153</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M14" s="7">
         <v>705</v>
@@ -3527,13 +3533,13 @@
         <v>743543</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,7 +3595,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3601,13 +3607,13 @@
         <v>3065</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>152</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>160</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3616,13 +3622,13 @@
         <v>3883</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3631,13 +3637,13 @@
         <v>6948</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3658,13 @@
         <v>15532</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3667,13 +3673,13 @@
         <v>5711</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -3682,13 +3688,13 @@
         <v>21243</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3709,13 @@
         <v>38121</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -3718,13 +3724,13 @@
         <v>28734</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M18" s="7">
         <v>60</v>
@@ -3733,13 +3739,13 @@
         <v>66855</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3760,13 @@
         <v>74590</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -3769,13 +3775,13 @@
         <v>64861</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -3784,13 +3790,13 @@
         <v>139450</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3811,13 @@
         <v>219301</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H20" s="7">
         <v>197</v>
@@ -3820,13 +3826,13 @@
         <v>205264</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>402</v>
@@ -3835,13 +3841,13 @@
         <v>424565</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,13 +3915,13 @@
         <v>23429</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>310</v>
+        <v>192</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -3924,13 +3930,13 @@
         <v>16260</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>315</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -3939,13 +3945,13 @@
         <v>39689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>313</v>
+        <v>26</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3966,13 @@
         <v>54773</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>197</v>
+        <v>319</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -3975,13 +3981,13 @@
         <v>36082</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M23" s="7">
         <v>85</v>
@@ -3990,13 +3996,13 @@
         <v>90854</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4017,13 @@
         <v>212730</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="H24" s="7">
         <v>156</v>
@@ -4026,13 +4032,13 @@
         <v>159550</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M24" s="7">
         <v>347</v>
@@ -4041,13 +4047,13 @@
         <v>372280</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4068,13 @@
         <v>402449</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H25" s="7">
         <v>284</v>
@@ -4077,13 +4083,13 @@
         <v>285499</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M25" s="7">
         <v>665</v>
@@ -4092,13 +4098,13 @@
         <v>687948</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4119,13 @@
         <v>725544</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H26" s="7">
         <v>517</v>
@@ -4128,13 +4134,13 @@
         <v>535924</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M26" s="7">
         <v>1195</v>
@@ -4143,13 +4149,13 @@
         <v>1261468</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6715-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBA9C3D4-087D-4B88-9353-E243427927E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DF98C55-4690-4A73-89EB-4A94AF1F01AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AAEB4BCE-BE34-48DF-9031-FB8B3E7A8C5F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CC2E6629-6EB3-4D6F-80A8-F7A4C282CC93}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -1504,7 +1504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB6C16-DB41-466A-A73B-88B7A9316DD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBD3CB4-77AF-4C13-8A64-9DB9020BBC9E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2681,7 +2681,7 @@
         <v>284</v>
       </c>
       <c r="N24" s="7">
-        <v>303023</v>
+        <v>303022</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>167</v>
@@ -2783,7 +2783,7 @@
         <v>1362</v>
       </c>
       <c r="N26" s="7">
-        <v>1471556</v>
+        <v>1471555</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>183</v>
@@ -2834,7 +2834,7 @@
         <v>2201</v>
       </c>
       <c r="N27" s="7">
-        <v>2359414</v>
+        <v>2359413</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
@@ -2867,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B76892-9D35-45C0-AE74-7EAED19600DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DBF3E3-1649-43E6-A8BD-F3503588A4D8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4197,7 +4197,7 @@
         <v>2329</v>
       </c>
       <c r="N27" s="7">
-        <v>2452238</v>
+        <v>2452239</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
